--- a/Test Data Driven/AI-Generated/TestCase-00002.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00002.xlsx
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>daniel74</t>
+          <t>nathaniel72</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>richardmccoy</t>
+          <t>rowen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>thomas11</t>
+          <t>thomaschristopher</t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/TestCase-00002.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00002.xlsx
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>nathaniel72</t>
+          <t>ochambers</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>rowen</t>
+          <t>gregoryfreeman</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>thomaschristopher</t>
+          <t>charles05</t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/TestCase-00002.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00002.xlsx
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ochambers</t>
+          <t>dbowers</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>gregoryfreeman</t>
+          <t>cunninghamelizabeth</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>charles05</t>
+          <t>carriefarmer</t>
         </is>
       </c>
     </row>
